--- a/biology/Botanique/François_Rous/François_Rous.xlsx
+++ b/biology/Botanique/François_Rous/François_Rous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Rous</t>
+          <t>François_Rous</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Rous, né François, Joseph, Jean Rous à Prades (Pyrénées-Orientales) le 4 novembre 1828 et mort à Banyuls-sur-Mer (Pyrénées-Orientales) le 28 juin 1897[1], est un prêtre ayant officié dans son département d'origine et une personnalité du monde viticole. Il est aussi connu sous les noms de Francés Rous[2] ou abbé Rous[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Rous, né François, Joseph, Jean Rous à Prades (Pyrénées-Orientales) le 4 novembre 1828 et mort à Banyuls-sur-Mer (Pyrénées-Orientales) le 28 juin 1897, est un prêtre ayant officié dans son département d'origine et une personnalité du monde viticole. Il est aussi connu sous les noms de Francés Rous ou abbé Rous.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Rous</t>
+          <t>François_Rous</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Rous est ordonné prêtre à Perpignan (Pyrénées-Orientales) le 21 mai 1853 puis devient professeur au Petit-Séminaire de Prades. Il est ensuite nommé vicaire le 1er février 1855 à Rivesaltes (Pyrénées-Orientales) puis le 1er octobre 1860 à la paroisse Saint-Mathieu de Perpignan. Âgé de trente-cinq ans, il est promu curé de Saint-Estève (Pyrénées-Orientales) le 15 décembre 1863. Il est ensuite curé d'Estagel (Pyrénées-Orientales) le 1er novembre 1866, puis de Néfiach (Pyrénées-Orientales) à partir du 1er octobre 1870 et enfin de Banyuls-sur-Mer à compter du 1er mars 1871. Il pose la première pierre de la nouvelle église paroissiale de Banyuls-sur-Mer cette même année et commande une statue de la Vierge Marie au sculpteur Alexandre Oliva pour le maître-autel. L'église est inaugurée en 1888[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Rous est ordonné prêtre à Perpignan (Pyrénées-Orientales) le 21 mai 1853 puis devient professeur au Petit-Séminaire de Prades. Il est ensuite nommé vicaire le 1er février 1855 à Rivesaltes (Pyrénées-Orientales) puis le 1er octobre 1860 à la paroisse Saint-Mathieu de Perpignan. Âgé de trente-cinq ans, il est promu curé de Saint-Estève (Pyrénées-Orientales) le 15 décembre 1863. Il est ensuite curé d'Estagel (Pyrénées-Orientales) le 1er novembre 1866, puis de Néfiach (Pyrénées-Orientales) à partir du 1er octobre 1870 et enfin de Banyuls-sur-Mer à compter du 1er mars 1871. Il pose la première pierre de la nouvelle église paroissiale de Banyuls-sur-Mer cette même année et commande une statue de la Vierge Marie au sculpteur Alexandre Oliva pour le maître-autel. L'église est inaugurée en 1888.
 Il constate que la vieille église romane de la Rectoria est trop petite pour accueillir tous ses fidèles. Il lui faut l’agrandir et la restaurer. Alors le curé imagine un moyen de financer ses projets sans faire appel à la générosité publique. En 1873 le vin de messe revient à l’abbé Rous. C’est ainsi qu’il se lance dans le commerce des vins, appelés par ses soins «  l’œuvre du vin de messe ». L’affaire devint vite une affaire prospère avec 400 000 francs-or de l’époque, en chiffre d’affaires.
 L’abbé Rous joua un grand rôle pour la mise en valeur du vignoble et promoteur du cru du vin de Banyuls-sur-Mer.
 Il imagina alors un moyen de financer ses projets et organisa un négoce.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Rous</t>
+          <t>François_Rous</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(ca) Catalanes d'Estagell y d'altres endrets : aqui se parle, tal com se pot, lo catala del païs, Perpinya, Chez Charles Latrobe, imprimeur-libraire, chez Honoré Saint-Martory, libraire et à Estagell chez l'auteur, 1870 (lire en ligne).
 Francés Rous, Catalanes y catalanades : parlar rossellonés, Espira-de-l'Agly, P. Jammet, 1873, 207 p., in-16 (BNF 31256157)</t>
